--- a/EVSE_Stations_By_State.xlsx
+++ b/EVSE_Stations_By_State.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddharthjawahar/Documents/Data Analysis/EV charging/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7781CA6E-D759-DF44-97F9-86351538DF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E60289-A342-F44C-ADF7-072CDBD85E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,10 +194,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Public road miles</t>
-  </si>
-  <si>
     <t>EVSEs/100 miles</t>
+  </si>
+  <si>
+    <t>Public road miles (lane miles)</t>
   </si>
 </sst>
 </file>
@@ -596,14 +596,14 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,10 +615,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.2">
